--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2470443333333333</v>
+        <v>0.151577</v>
       </c>
       <c r="H2">
-        <v>0.741133</v>
+        <v>0.454731</v>
       </c>
       <c r="I2">
-        <v>0.1877504790451321</v>
+        <v>0.1371818665598328</v>
       </c>
       <c r="J2">
-        <v>0.1877504790451321</v>
+        <v>0.1371818665598328</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N2">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O2">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P2">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q2">
-        <v>5.845345286927556</v>
+        <v>3.895392985956666</v>
       </c>
       <c r="R2">
-        <v>52.608107582348</v>
+        <v>35.05853687361</v>
       </c>
       <c r="S2">
-        <v>0.01663695391922146</v>
+        <v>0.01201883715375989</v>
       </c>
       <c r="T2">
-        <v>0.01663695391922146</v>
+        <v>0.01201883715375989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2470443333333333</v>
+        <v>0.151577</v>
       </c>
       <c r="H3">
-        <v>0.741133</v>
+        <v>0.454731</v>
       </c>
       <c r="I3">
-        <v>0.1877504790451321</v>
+        <v>0.1371818665598328</v>
       </c>
       <c r="J3">
-        <v>0.1877504790451321</v>
+        <v>0.1371818665598328</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.486704</v>
       </c>
       <c r="O3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q3">
-        <v>0.04007915507022222</v>
+        <v>0.02459104406933333</v>
       </c>
       <c r="R3">
-        <v>0.360712395632</v>
+        <v>0.221319396624</v>
       </c>
       <c r="S3">
-        <v>0.000114072826034046</v>
+        <v>7.587315456380454E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001140728260340461</v>
+        <v>7.587315456380456E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2470443333333333</v>
+        <v>0.151577</v>
       </c>
       <c r="H4">
-        <v>0.741133</v>
+        <v>0.454731</v>
       </c>
       <c r="I4">
-        <v>0.1877504790451321</v>
+        <v>0.1371818665598328</v>
       </c>
       <c r="J4">
-        <v>0.1877504790451321</v>
+        <v>0.1371818665598328</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N4">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O4">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P4">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q4">
-        <v>2.962303989505778</v>
+        <v>7.113085609118666</v>
       </c>
       <c r="R4">
-        <v>26.660735905552</v>
+        <v>64.017770482068</v>
       </c>
       <c r="S4">
-        <v>0.008431275236785562</v>
+        <v>0.02194669906347191</v>
       </c>
       <c r="T4">
-        <v>0.008431275236785564</v>
+        <v>0.02194669906347192</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2470443333333333</v>
+        <v>0.151577</v>
       </c>
       <c r="H5">
-        <v>0.741133</v>
+        <v>0.454731</v>
       </c>
       <c r="I5">
-        <v>0.1877504790451321</v>
+        <v>0.1371818665598328</v>
       </c>
       <c r="J5">
-        <v>0.1877504790451321</v>
+        <v>0.1371818665598328</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N5">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O5">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P5">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q5">
-        <v>57.11785536066522</v>
+        <v>33.428576189083</v>
       </c>
       <c r="R5">
-        <v>514.0606982459871</v>
+        <v>300.857185701747</v>
       </c>
       <c r="S5">
-        <v>0.162568177063091</v>
+        <v>0.1031404571880372</v>
       </c>
       <c r="T5">
-        <v>0.1625681770630911</v>
+        <v>0.1031404571880372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>0.136773</v>
       </c>
       <c r="I6">
-        <v>0.0346485668165361</v>
+        <v>0.04126126310937238</v>
       </c>
       <c r="J6">
-        <v>0.0346485668165361</v>
+        <v>0.04126126310937238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N6">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O6">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P6">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q6">
-        <v>1.078734061132</v>
+        <v>1.17164782007</v>
       </c>
       <c r="R6">
-        <v>9.708606550188</v>
+        <v>10.54483038063</v>
       </c>
       <c r="S6">
-        <v>0.003070280365863719</v>
+        <v>0.003614999668004163</v>
       </c>
       <c r="T6">
-        <v>0.00307028036586372</v>
+        <v>0.003614999668004164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.136773</v>
       </c>
       <c r="I7">
-        <v>0.0346485668165361</v>
+        <v>0.04126126310937238</v>
       </c>
       <c r="J7">
-        <v>0.0346485668165361</v>
+        <v>0.04126126310937238</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.486704</v>
       </c>
       <c r="O7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q7">
         <v>0.007396440688</v>
@@ -883,10 +883,10 @@
         <v>0.06656796619200001</v>
       </c>
       <c r="S7">
-        <v>2.105166364897337E-05</v>
+        <v>2.282096221536521E-05</v>
       </c>
       <c r="T7">
-        <v>2.105166364897337E-05</v>
+        <v>2.282096221536521E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,10 +915,10 @@
         <v>0.136773</v>
       </c>
       <c r="I8">
-        <v>0.0346485668165361</v>
+        <v>0.04126126310937238</v>
       </c>
       <c r="J8">
-        <v>0.0346485668165361</v>
+        <v>0.04126126310937238</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N8">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O8">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P8">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q8">
-        <v>0.5466808299679999</v>
+        <v>2.139458400716</v>
       </c>
       <c r="R8">
-        <v>4.920127469712</v>
+        <v>19.255125606444</v>
       </c>
       <c r="S8">
-        <v>0.001555956633911689</v>
+        <v>0.006601080355217137</v>
       </c>
       <c r="T8">
-        <v>0.001555956633911689</v>
+        <v>0.006601080355217137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,10 +977,10 @@
         <v>0.136773</v>
       </c>
       <c r="I9">
-        <v>0.0346485668165361</v>
+        <v>0.04126126310937238</v>
       </c>
       <c r="J9">
-        <v>0.0346485668165361</v>
+        <v>0.04126126310937238</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N9">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O9">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P9">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q9">
-        <v>10.540861668883</v>
+        <v>10.054574355189</v>
       </c>
       <c r="R9">
-        <v>94.86775501994701</v>
+        <v>90.49116919670099</v>
       </c>
       <c r="S9">
-        <v>0.03000127815311172</v>
+        <v>0.03102236212393571</v>
       </c>
       <c r="T9">
-        <v>0.03000127815311172</v>
+        <v>0.03102236212393571</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.023176666666667</v>
+        <v>0.1599346666666667</v>
       </c>
       <c r="H10">
-        <v>3.06953</v>
+        <v>0.479804</v>
       </c>
       <c r="I10">
-        <v>0.7776009541383317</v>
+        <v>0.1447458130254459</v>
       </c>
       <c r="J10">
-        <v>0.7776009541383319</v>
+        <v>0.1447458130254458</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N10">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O10">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P10">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q10">
-        <v>24.20950452696444</v>
+        <v>4.110177525248888</v>
       </c>
       <c r="R10">
-        <v>217.88554074268</v>
+        <v>36.99159772724</v>
       </c>
       <c r="S10">
-        <v>0.06890481082837739</v>
+        <v>0.01268153291005586</v>
       </c>
       <c r="T10">
-        <v>0.06890481082837742</v>
+        <v>0.01268153291005586</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.023176666666667</v>
+        <v>0.1599346666666667</v>
       </c>
       <c r="H11">
-        <v>3.06953</v>
+        <v>0.479804</v>
       </c>
       <c r="I11">
-        <v>0.7776009541383317</v>
+        <v>0.1447458130254459</v>
       </c>
       <c r="J11">
-        <v>0.7776009541383319</v>
+        <v>0.1447458130254458</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.486704</v>
       </c>
       <c r="O11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q11">
-        <v>0.1659947254577778</v>
+        <v>0.02594694733511111</v>
       </c>
       <c r="R11">
-        <v>1.49395252912</v>
+        <v>0.233522526016</v>
       </c>
       <c r="S11">
-        <v>0.0004724522611950693</v>
+        <v>8.005665558831854E-05</v>
       </c>
       <c r="T11">
-        <v>0.0004724522611950694</v>
+        <v>8.005665558831854E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.023176666666667</v>
+        <v>0.1599346666666667</v>
       </c>
       <c r="H12">
-        <v>3.06953</v>
+        <v>0.479804</v>
       </c>
       <c r="I12">
-        <v>0.7776009541383317</v>
+        <v>0.1447458130254459</v>
       </c>
       <c r="J12">
-        <v>0.7776009541383319</v>
+        <v>0.1447458130254458</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N12">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O12">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P12">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q12">
-        <v>12.26889231070222</v>
+        <v>7.505287582323557</v>
       </c>
       <c r="R12">
-        <v>110.42003079632</v>
+        <v>67.54758824091201</v>
       </c>
       <c r="S12">
-        <v>0.03491957891170732</v>
+        <v>0.02315679818936927</v>
       </c>
       <c r="T12">
-        <v>0.03491957891170733</v>
+        <v>0.02315679818936927</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.023176666666667</v>
+        <v>0.1599346666666667</v>
       </c>
       <c r="H13">
-        <v>3.06953</v>
+        <v>0.479804</v>
       </c>
       <c r="I13">
-        <v>0.7776009541383317</v>
+        <v>0.1447458130254459</v>
       </c>
       <c r="J13">
-        <v>0.7776009541383319</v>
+        <v>0.1447458130254458</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N13">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O13">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P13">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q13">
-        <v>236.5634380944078</v>
+        <v>35.27176411950533</v>
       </c>
       <c r="R13">
-        <v>2129.07094284967</v>
+        <v>317.445877075548</v>
       </c>
       <c r="S13">
-        <v>0.6733041121370519</v>
+        <v>0.1088274252704324</v>
       </c>
       <c r="T13">
-        <v>0.6733041121370521</v>
+        <v>0.1088274252704324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.7478319999999999</v>
+      </c>
+      <c r="H14">
+        <v>2.243496</v>
+      </c>
+      <c r="I14">
+        <v>0.676811057305349</v>
+      </c>
+      <c r="J14">
+        <v>0.676811057305349</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>25.69910333333333</v>
+      </c>
+      <c r="N14">
+        <v>77.09730999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.08761243344445813</v>
+      </c>
+      <c r="P14">
+        <v>0.08761243344445814</v>
+      </c>
+      <c r="Q14">
+        <v>19.21861184397333</v>
+      </c>
+      <c r="R14">
+        <v>172.96750659576</v>
+      </c>
+      <c r="S14">
+        <v>0.05929706371263822</v>
+      </c>
+      <c r="T14">
+        <v>0.05929706371263823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.7478319999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.243496</v>
+      </c>
+      <c r="I15">
+        <v>0.676811057305349</v>
+      </c>
+      <c r="J15">
+        <v>0.676811057305349</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1622346666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.486704</v>
+      </c>
+      <c r="O15">
+        <v>0.0005530844306649811</v>
+      </c>
+      <c r="P15">
+        <v>0.0005530844306649812</v>
+      </c>
+      <c r="Q15">
+        <v>0.1213242752426667</v>
+      </c>
+      <c r="R15">
+        <v>1.091918477184</v>
+      </c>
+      <c r="S15">
+        <v>0.0003743336582974928</v>
+      </c>
+      <c r="T15">
+        <v>0.0003743336582974929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.7478319999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.243496</v>
+      </c>
+      <c r="I16">
+        <v>0.676811057305349</v>
+      </c>
+      <c r="J16">
+        <v>0.676811057305349</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>46.92720933333334</v>
+      </c>
+      <c r="N16">
+        <v>140.781628</v>
+      </c>
+      <c r="O16">
+        <v>0.1599825079935015</v>
+      </c>
+      <c r="P16">
+        <v>0.1599825079935016</v>
+      </c>
+      <c r="Q16">
+        <v>35.09366881016533</v>
+      </c>
+      <c r="R16">
+        <v>315.843019291488</v>
+      </c>
+      <c r="S16">
+        <v>0.1082779303854432</v>
+      </c>
+      <c r="T16">
+        <v>0.1082779303854432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.7478319999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.243496</v>
+      </c>
+      <c r="I17">
+        <v>0.676811057305349</v>
+      </c>
+      <c r="J17">
+        <v>0.676811057305349</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>220.538579</v>
+      </c>
+      <c r="N17">
+        <v>661.615737</v>
+      </c>
+      <c r="O17">
+        <v>0.7518519741313753</v>
+      </c>
+      <c r="P17">
+        <v>0.7518519741313754</v>
+      </c>
+      <c r="Q17">
+        <v>164.925806610728</v>
+      </c>
+      <c r="R17">
+        <v>1484.332259496552</v>
+      </c>
+      <c r="S17">
+        <v>0.50886172954897</v>
+      </c>
+      <c r="T17">
+        <v>0.50886172954897</v>
       </c>
     </row>
   </sheetData>
